--- a/experiment result cnn/1024_0.7_40_zs50_kappa_lp.xlsx
+++ b/experiment result cnn/1024_0.7_40_zs50_kappa_lp.xlsx
@@ -443,7 +443,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.005279505071013007</v>
+        <v>6.000999999931974e-05</v>
       </c>
     </row>
     <row r="3">
@@ -451,7 +451,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.01957185568732302</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -459,7 +459,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.004096217456398882</v>
+        <v>0.002633781152504068</v>
       </c>
     </row>
     <row r="5">
@@ -467,7 +467,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.01020875032077434</v>
+        <v>0.0008416239785028173</v>
       </c>
     </row>
     <row r="6">
@@ -475,7 +475,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>6.000199639835963e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -483,7 +483,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.001122545734067986</v>
+        <v>0.0002803919984590513</v>
       </c>
     </row>
     <row r="8">
@@ -491,7 +491,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.00819015660586842</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -499,7 +499,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>8.003199678430715e-05</v>
+        <v>0.004061386029930108</v>
       </c>
     </row>
     <row r="10">
@@ -515,7 +515,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.02893229686921619</v>
+        <v>0.0005816819715441949</v>
       </c>
     </row>
     <row r="12">
@@ -523,7 +523,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.00177204496079716</v>
+        <v>8.001599999871949e-05</v>
       </c>
     </row>
     <row r="13">
@@ -531,7 +531,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.001064721793604035</v>
+        <v>0.001324347876624109</v>
       </c>
     </row>
     <row r="14">
@@ -539,7 +539,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.001683703936603727</v>
+        <v>0.0007827419244766758</v>
       </c>
     </row>
     <row r="15">
@@ -547,7 +547,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0007225900903243661</v>
+        <v>2.000199999995999e-05</v>
       </c>
     </row>
     <row r="16">
@@ -555,7 +555,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0001400539895526705</v>
+        <v>6.001799999675806e-05</v>
       </c>
     </row>
     <row r="17">
@@ -563,7 +563,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.04056024859536005</v>
+        <v>0.0001800899999448558</v>
       </c>
     </row>
     <row r="18">
@@ -571,7 +571,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.001489972904095439</v>
+        <v>0.0002803919984590513</v>
       </c>
     </row>
     <row r="19">
@@ -579,7 +579,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.001003163891827823</v>
+        <v>0.0002001639997370472</v>
       </c>
     </row>
     <row r="20">
@@ -587,7 +587,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>2.000400019989997e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -595,7 +595,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>6.000599319423763e-05</v>
+        <v>0.001684811832442886</v>
       </c>
     </row>
     <row r="22">
@@ -603,7 +603,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0001600679823398626</v>
+        <v>0.0004603859992476873</v>
       </c>
     </row>
     <row r="23">
@@ -611,7 +611,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.03490933409177582</v>
+        <v>0.0001801619997370872</v>
       </c>
     </row>
     <row r="24">
@@ -619,7 +619,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.002859661431755779</v>
+        <v>2.000199999995999e-05</v>
       </c>
     </row>
     <row r="25">
@@ -627,7 +627,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.01096374228997861</v>
+        <v>0.001022865931732711</v>
       </c>
     </row>
     <row r="26">
@@ -635,7 +635,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0001200719638435417</v>
+        <v>0.003104839128695694</v>
       </c>
     </row>
     <row r="27">
@@ -643,7 +643,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.004488552603695734</v>
+        <v>0.0006420479577876656</v>
       </c>
     </row>
     <row r="28">
@@ -651,7 +651,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0057413026451353</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -659,7 +659,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0002602458526846665</v>
+        <v>0.003205286584688792</v>
       </c>
     </row>
     <row r="30">
@@ -667,7 +667,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.001226315176658905</v>
+        <v>0.0001600999999037854</v>
       </c>
     </row>
     <row r="31">
@@ -675,7 +675,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.00792829145211409</v>
+        <v>0.002710874305543517</v>
       </c>
     </row>
     <row r="32">
@@ -683,7 +683,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0003202357896161066</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -691,7 +691,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>0.000160049989971698</v>
+        <v>0.0006008439964279273</v>
       </c>
     </row>
     <row r="34">
@@ -699,7 +699,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>0.005863660982976976</v>
+        <v>0.0006615099786021938</v>
       </c>
     </row>
     <row r="35">
@@ -707,7 +707,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0001400979507418523</v>
+        <v>0.000641019992023236</v>
       </c>
     </row>
     <row r="36">
@@ -715,7 +715,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>0.002347919035062519</v>
+        <v>0.02656073377201282</v>
       </c>
     </row>
     <row r="37">
@@ -723,7 +723,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>0.01098535864187505</v>
+        <v>0.0007024499395533545</v>
       </c>
     </row>
     <row r="38">
@@ -731,7 +731,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>0.001646830340751817</v>
+        <v>2.000199999995999e-05</v>
       </c>
     </row>
     <row r="39">
@@ -739,7 +739,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>0.000300285600824263</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -747,7 +747,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>0.000801536700213722</v>
+        <v>6.001799999675806e-05</v>
       </c>
     </row>
     <row r="41">
@@ -755,7 +755,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0001400579733101526</v>
+        <v>4.000399999991998e-05</v>
       </c>
     </row>
     <row r="42">
@@ -763,7 +763,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>0.006977305336526744</v>
+        <v>0.008060579426284329</v>
       </c>
     </row>
     <row r="43">
@@ -771,7 +771,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>0.00470983899364495</v>
+        <v>0.007416318845234563</v>
       </c>
     </row>
     <row r="44">
@@ -779,7 +779,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>0.00146952044083426</v>
+        <v>4.000799999935975e-05</v>
       </c>
     </row>
     <row r="45">
@@ -787,7 +787,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>0.01255041287505258</v>
+        <v>0.001450366909454979</v>
       </c>
     </row>
     <row r="46">
@@ -795,7 +795,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>0.01036563312525609</v>
+        <v>0.004121396884328561</v>
       </c>
     </row>
     <row r="47">
@@ -803,7 +803,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>0.003065358165545517</v>
+        <v>0.005958291371955287</v>
       </c>
     </row>
     <row r="48">
@@ -811,7 +811,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0001400419274410777</v>
+        <v>2.000199999995999e-05</v>
       </c>
     </row>
     <row r="49">
@@ -819,7 +819,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>0.001645226525580323</v>
+        <v>4.000799999935975e-05</v>
       </c>
     </row>
     <row r="50">
@@ -827,7 +827,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>0.0005604017550572149</v>
+        <v>2.000199999995999e-05</v>
       </c>
     </row>
     <row r="51">
@@ -835,7 +835,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>0.008221190135722534</v>
+        <v>2.000199999995999e-05</v>
       </c>
     </row>
     <row r="52">
@@ -843,7 +843,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>0.004461815034230719</v>
+        <v>0.04200274854916883</v>
       </c>
     </row>
     <row r="53">
@@ -851,7 +851,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>0.2117858218287808</v>
+        <v>0.09369912540630682</v>
       </c>
     </row>
     <row r="54">
@@ -859,7 +859,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>0.004141143775974253</v>
+        <v>0.003203284764812721</v>
       </c>
     </row>
     <row r="55">
@@ -867,7 +867,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>0.005293610451605474</v>
+        <v>0.0002000839999473775</v>
       </c>
     </row>
     <row r="56">
@@ -875,7 +875,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>0.001848227082013826</v>
+        <v>0.00482846448656066</v>
       </c>
     </row>
     <row r="57">
@@ -883,7 +883,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>0.04883120874305247</v>
+        <v>0.03924951326509077</v>
       </c>
     </row>
     <row r="58">
@@ -891,7 +891,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>0.07687000927254739</v>
+        <v>0.00315579242753839</v>
       </c>
     </row>
     <row r="59">
@@ -899,7 +899,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>0.004363442180267237</v>
+        <v>0.004466913081629885</v>
       </c>
     </row>
     <row r="60">
@@ -907,7 +907,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>0.006758659405178358</v>
+        <v>0.03542444697446723</v>
       </c>
     </row>
     <row r="61">
@@ -915,7 +915,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0001400979802449368</v>
+        <v>0.02068834881272896</v>
       </c>
     </row>
     <row r="62">
@@ -923,7 +923,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>0.001185833336196159</v>
+        <v>0.01616333543350854</v>
       </c>
     </row>
     <row r="63">
@@ -931,7 +931,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>0.004349335861089815</v>
+        <v>0.007860131340834828</v>
       </c>
     </row>
     <row r="64">
@@ -939,7 +939,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>0.01091963999366778</v>
+        <v>8.001599999871949e-05</v>
       </c>
     </row>
     <row r="65">
@@ -947,7 +947,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>0.09562989494184244</v>
+        <v>0.008329565634442922</v>
       </c>
     </row>
     <row r="66">
@@ -955,7 +955,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>0.1608854222971958</v>
+        <v>0.03266573974816897</v>
       </c>
     </row>
     <row r="67">
@@ -963,7 +963,7 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>0.005457083193796336</v>
+        <v>0.1132605710979354</v>
       </c>
     </row>
     <row r="68">
@@ -971,7 +971,7 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>0.06980949181179701</v>
+        <v>0.01484834224470209</v>
       </c>
     </row>
     <row r="69">
@@ -979,7 +979,7 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>0.00506948509437769</v>
+        <v>0.02196963231774524</v>
       </c>
     </row>
     <row r="70">
@@ -987,7 +987,7 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>0.009686149582678372</v>
+        <v>0.001587081570237244</v>
       </c>
     </row>
     <row r="71">
@@ -995,7 +995,7 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>0.02321793161652748</v>
+        <v>0.02475025179064706</v>
       </c>
     </row>
     <row r="72">
@@ -1003,7 +1003,7 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>0.01068707331334036</v>
+        <v>0.06758840330758528</v>
       </c>
     </row>
     <row r="73">
@@ -1011,7 +1011,7 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>0.03389381048779012</v>
+        <v>0.02602528216039853</v>
       </c>
     </row>
     <row r="74">
@@ -1019,7 +1019,7 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>0.0557538411618253</v>
+        <v>0.03206084156494624</v>
       </c>
     </row>
     <row r="75">
@@ -1027,7 +1027,7 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>0.001606808182341588</v>
+        <v>0.06745123461815064</v>
       </c>
     </row>
     <row r="76">
@@ -1035,7 +1035,7 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>0.01802206728754263</v>
+        <v>0.1554668516392434</v>
       </c>
     </row>
     <row r="77">
@@ -1043,7 +1043,7 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>0.0502278851309423</v>
+        <v>0.02690258448896807</v>
       </c>
     </row>
     <row r="78">
@@ -1051,7 +1051,7 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>0.0387127580625085</v>
+        <v>0.03360643652820896</v>
       </c>
     </row>
     <row r="79">
@@ -1059,7 +1059,7 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>0.01115170490961546</v>
+        <v>0.2475249455189209</v>
       </c>
     </row>
     <row r="80">
@@ -1067,7 +1067,7 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>0.02733471799501931</v>
+        <v>0.02509769569190968</v>
       </c>
     </row>
     <row r="81">
@@ -1075,7 +1075,7 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>0.009377863874994941</v>
+        <v>0.04679198097997962</v>
       </c>
     </row>
     <row r="82">
@@ -1083,7 +1083,7 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>0.00777750144214084</v>
+        <v>0.002934099056492317</v>
       </c>
     </row>
     <row r="83">
@@ -1091,7 +1091,7 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>0.01935001792452866</v>
+        <v>0.0245048802597034</v>
       </c>
     </row>
     <row r="84">
@@ -1099,7 +1099,7 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>0.01939403898321315</v>
+        <v>0.009123410838045763</v>
       </c>
     </row>
     <row r="85">
@@ -1107,7 +1107,7 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>0.04753810729918757</v>
+        <v>0.006283312327255537</v>
       </c>
     </row>
     <row r="86">
@@ -1115,7 +1115,7 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>0.00152597015905068</v>
+        <v>0.003251677671502588</v>
       </c>
     </row>
     <row r="87">
@@ -1123,7 +1123,7 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>0.003226063119473704</v>
+        <v>0.009842448685129802</v>
       </c>
     </row>
     <row r="88">
@@ -1131,7 +1131,7 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>0.01108373424566924</v>
+        <v>0.0005213519816256618</v>
       </c>
     </row>
     <row r="89">
@@ -1139,7 +1139,7 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>0.1024948737680258</v>
+        <v>0.02579661766972213</v>
       </c>
     </row>
     <row r="90">
@@ -1147,7 +1147,7 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>0.002232394462087422</v>
+        <v>0.02965177058708376</v>
       </c>
     </row>
     <row r="91">
@@ -1155,7 +1155,7 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>0.1629061196171264</v>
+        <v>0.001184441832951184</v>
       </c>
     </row>
     <row r="92">
@@ -1163,7 +1163,7 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>0.09863242643366846</v>
+        <v>0.09984338704489674</v>
       </c>
     </row>
     <row r="93">
@@ -1171,7 +1171,7 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>0.00259698650468681</v>
+        <v>0.04565936185386296</v>
       </c>
     </row>
     <row r="94">
@@ -1179,7 +1179,7 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>0.02541672598089599</v>
+        <v>0.01148006865228866</v>
       </c>
     </row>
     <row r="95">
@@ -1187,7 +1187,7 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>0.01155336717745056</v>
+        <v>0.1099159292501193</v>
       </c>
     </row>
     <row r="96">
@@ -1195,7 +1195,7 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>0.07283790480713434</v>
+        <v>0.01678168676584316</v>
       </c>
     </row>
     <row r="97">
@@ -1203,7 +1203,7 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>0.01312426407608653</v>
+        <v>0.01219159640643481</v>
       </c>
     </row>
     <row r="98">
@@ -1211,7 +1211,7 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>0.0008636733497677136</v>
+        <v>0.1357249604481333</v>
       </c>
     </row>
     <row r="99">
@@ -1219,7 +1219,7 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>0.0370396302441922</v>
+        <v>0.128116408113967</v>
       </c>
     </row>
     <row r="100">
@@ -1227,7 +1227,7 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>0.02867089542849407</v>
+        <v>0.007109335163044202</v>
       </c>
     </row>
     <row r="101">
@@ -1235,7 +1235,7 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>0.001327377808509415</v>
+        <v>0.1632801979899478</v>
       </c>
     </row>
   </sheetData>
